--- a/my-app/static/downloads-excel/Reporte_accesos_Xavier Perez_2024_01_12.xlsx
+++ b/my-app/static/downloads-excel/Reporte_accesos_Xavier Perez_2024_01_12.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45303</v>
+        <v>45294</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -469,52 +469,6 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Xavier Perez</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45303</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sala de Servidores</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Xavier Perez</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45294</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sala de Servidores</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
